--- a/CogMI Conference/Compiled Metrics.xlsx
+++ b/CogMI Conference/Compiled Metrics.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HaseebKhan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HaseebKhan/Documents/UConn/Senior Year/CSE 5095/Project/Hate Speech Classifier/CogMI Conference/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario 1" sheetId="1" r:id="rId1"/>
     <sheet name="Scenario 2" sheetId="5" r:id="rId2"/>
-    <sheet name="Scenario 1 (3)" sheetId="6" r:id="rId3"/>
-    <sheet name="Scenario 1 (4)" sheetId="7" r:id="rId4"/>
+    <sheet name="Scenario 3" sheetId="6" r:id="rId3"/>
+    <sheet name="Scenario 4" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="24">
   <si>
     <t>Training and Testing done with Dataset #1</t>
   </si>
@@ -97,15 +97,21 @@
   <si>
     <t>Training and Testing done with Dataset #2</t>
   </si>
+  <si>
+    <t>Training with Dataset #1, Testing with Dataset #2</t>
+  </si>
+  <si>
+    <t>Training with Dataset #2, Testing with Dataset #1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,31 +130,34 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="36">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -157,122 +166,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -304,32 +197,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -452,9 +319,7 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -467,9 +332,7 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -482,7 +345,44 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -497,62 +397,32 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -563,20 +433,25 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -586,25 +461,10 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -612,9 +472,18 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -625,23 +494,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -651,94 +530,103 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1020,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="109" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1037,776 +925,776 @@
     </row>
     <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="31" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="24">
         <v>0.92088000000000003</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="24">
         <v>0.89710999999999996</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="24">
         <v>0.92088000000000003</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="24">
         <v>0.91932000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="17"/>
-      <c r="C8" s="54" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="34">
         <v>0.91910999999999998</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="34">
         <v>0.89500999999999997</v>
       </c>
-      <c r="F8" s="55">
+      <c r="F8" s="34">
         <v>0.91964999999999997</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="34">
         <v>0.91742000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="17"/>
-      <c r="C9" s="54" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="28">
         <v>0.91393999999999997</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="28">
         <v>0.88727</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="28">
         <v>0.91508999999999996</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="28">
         <v>0.91195000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="17"/>
-      <c r="C10" s="54" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="3">
         <v>0.95313000000000003</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="3">
         <v>0.93267</v>
       </c>
-      <c r="F10" s="55">
+      <c r="F10" s="3">
         <v>0.94067000000000001</v>
       </c>
-      <c r="G10" s="55">
+      <c r="G10" s="3">
         <v>0.95457999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="56" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="5">
         <v>0.87785000000000002</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="5">
         <v>0.84609000000000001</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="5">
         <v>0.89087000000000005</v>
       </c>
-      <c r="G11" s="57">
+      <c r="G11" s="5">
         <v>0.87295999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="53">
+      <c r="D12" s="24">
         <v>0.91815999999999998</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="24">
         <v>0.89359999999999995</v>
       </c>
-      <c r="F12" s="53">
+      <c r="F12" s="24">
         <v>0.90880000000000005</v>
       </c>
-      <c r="G12" s="53">
+      <c r="G12" s="24">
         <v>0.91503999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="32"/>
-      <c r="C13" s="54" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D13" s="34">
         <v>0.91563000000000005</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="34">
         <v>0.89122000000000001</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="34">
         <v>0.90703</v>
       </c>
-      <c r="G13" s="55">
+      <c r="G13" s="34">
         <v>0.91425000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="32"/>
-      <c r="C14" s="54" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="28">
         <v>0.90924000000000005</v>
       </c>
-      <c r="E14" s="55">
+      <c r="E14" s="28">
         <v>0.88258000000000003</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14" s="28">
         <v>0.90083999999999997</v>
       </c>
-      <c r="G14" s="55">
+      <c r="G14" s="28">
         <v>0.90983999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="32"/>
-      <c r="C15" s="54" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15" s="3">
         <v>0.96869000000000005</v>
       </c>
-      <c r="E15" s="55">
+      <c r="E15" s="3">
         <v>0.93527000000000005</v>
       </c>
-      <c r="F15" s="55">
+      <c r="F15" s="3">
         <v>0.93903999999999999</v>
       </c>
-      <c r="G15" s="55">
+      <c r="G15" s="3">
         <v>0.92435999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="33"/>
-      <c r="C16" s="56" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="57">
+      <c r="D16" s="5">
         <v>0.85667000000000004</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="5">
         <v>0.83550000000000002</v>
       </c>
-      <c r="F16" s="57">
+      <c r="F16" s="5">
         <v>0.86563000000000001</v>
       </c>
-      <c r="G16" s="57">
+      <c r="G16" s="5">
         <v>0.89576</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="24">
         <v>0.77981</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E17" s="24">
         <v>0.77356999999999998</v>
       </c>
-      <c r="F17" s="53">
+      <c r="F17" s="24">
         <v>0.77512999999999999</v>
       </c>
-      <c r="G17" s="53">
+      <c r="G17" s="24">
         <v>0.77942</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="32"/>
-      <c r="C18" s="54" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="55">
+      <c r="D18" s="34">
         <v>0.77212000000000003</v>
       </c>
-      <c r="E18" s="55">
+      <c r="E18" s="34">
         <v>0.76590999999999998</v>
       </c>
-      <c r="F18" s="55">
+      <c r="F18" s="34">
         <v>0.76980999999999999</v>
       </c>
-      <c r="G18" s="55">
+      <c r="G18" s="34">
         <v>0.77442999999999995</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="32"/>
-      <c r="C19" s="54" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D19" s="28">
         <v>0.72043000000000001</v>
       </c>
-      <c r="E19" s="55">
+      <c r="E19" s="28">
         <v>0.71279999999999999</v>
       </c>
-      <c r="F19" s="55">
+      <c r="F19" s="28">
         <v>0.73324</v>
       </c>
-      <c r="G19" s="55">
+      <c r="G19" s="28">
         <v>0.74060000000000004</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="32"/>
-      <c r="C20" s="54" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="3">
         <v>0.91803000000000001</v>
       </c>
-      <c r="E20" s="55">
+      <c r="E20" s="3">
         <v>0.90690999999999999</v>
       </c>
-      <c r="F20" s="55">
+      <c r="F20" s="3">
         <v>0.84811999999999999</v>
       </c>
-      <c r="G20" s="55">
+      <c r="G20" s="3">
         <v>0.84696000000000005</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="33"/>
-      <c r="C21" s="56" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="57">
+      <c r="D21" s="5">
         <v>0.59282999999999997</v>
       </c>
-      <c r="E21" s="57">
+      <c r="E21" s="5">
         <v>0.58713000000000004</v>
       </c>
-      <c r="F21" s="57">
+      <c r="F21" s="5">
         <v>0.64576</v>
       </c>
-      <c r="G21" s="57">
+      <c r="G21" s="5">
         <v>0.65798000000000001</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="53">
+      <c r="D22" s="24">
         <v>0.78215000000000001</v>
       </c>
-      <c r="E22" s="53">
+      <c r="E22" s="24">
         <v>0.76734000000000002</v>
       </c>
-      <c r="F22" s="53">
+      <c r="F22" s="24">
         <v>0.77512999999999999</v>
       </c>
-      <c r="G22" s="53">
+      <c r="G22" s="24">
         <v>0.78371000000000002</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="32"/>
-      <c r="C23" s="54" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D23" s="34">
         <v>0.77442999999999995</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E23" s="34">
         <v>0.76012999999999997</v>
       </c>
-      <c r="F23" s="55">
+      <c r="F23" s="34">
         <v>0.77141999999999999</v>
       </c>
-      <c r="G23" s="55">
+      <c r="G23" s="34">
         <v>0.78041000000000005</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="32"/>
-      <c r="C24" s="54" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="55">
+      <c r="D24" s="28">
         <v>0.72313000000000005</v>
       </c>
-      <c r="E24" s="55">
+      <c r="E24" s="28">
         <v>0.70891999999999999</v>
       </c>
-      <c r="F24" s="55">
+      <c r="F24" s="28">
         <v>0.74456999999999995</v>
       </c>
-      <c r="G24" s="55">
+      <c r="G24" s="28">
         <v>0.75688999999999995</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="32"/>
-      <c r="C25" s="54" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="55">
+      <c r="D25" s="3">
         <v>0.92288000000000003</v>
       </c>
-      <c r="E25" s="55">
+      <c r="E25" s="3">
         <v>0.88334999999999997</v>
       </c>
-      <c r="F25" s="55">
+      <c r="F25" s="3">
         <v>0.81571000000000005</v>
       </c>
-      <c r="G25" s="55">
+      <c r="G25" s="3">
         <v>0.81894999999999996</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="33"/>
-      <c r="C26" s="56" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="57">
+      <c r="D26" s="5">
         <v>0.59445999999999999</v>
       </c>
-      <c r="E26" s="57">
+      <c r="E26" s="5">
         <v>0.59201000000000004</v>
       </c>
-      <c r="F26" s="57">
+      <c r="F26" s="5">
         <v>0.68484999999999996</v>
       </c>
-      <c r="G26" s="57">
+      <c r="G26" s="5">
         <v>0.70357999999999998</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="53">
+      <c r="D27" s="24">
         <v>0.72096000000000005</v>
       </c>
-      <c r="E27" s="53">
+      <c r="E27" s="24">
         <v>0.67225000000000001</v>
       </c>
-      <c r="F27" s="53">
+      <c r="F27" s="24">
         <v>0.69757999999999998</v>
       </c>
-      <c r="G27" s="53">
+      <c r="G27" s="24">
         <v>0.68667</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="32"/>
-      <c r="C28" s="54" t="s">
+      <c r="B28" s="9"/>
+      <c r="C28" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="55">
+      <c r="D28" s="34">
         <v>0.72138999999999998</v>
       </c>
-      <c r="E28" s="55">
+      <c r="E28" s="34">
         <v>0.67101999999999995</v>
       </c>
-      <c r="F28" s="55">
+      <c r="F28" s="34">
         <v>0.6986</v>
       </c>
-      <c r="G28" s="55">
+      <c r="G28" s="34">
         <v>0.68842999999999999</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="32"/>
-      <c r="C29" s="54" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="55">
+      <c r="D29" s="28">
         <v>0.71496000000000004</v>
       </c>
-      <c r="E29" s="55">
+      <c r="E29" s="28">
         <v>0.65232999999999997</v>
       </c>
-      <c r="F29" s="55">
+      <c r="F29" s="28">
         <v>0.69567999999999997</v>
       </c>
-      <c r="G29" s="55">
+      <c r="G29" s="28">
         <v>0.69028999999999996</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="32"/>
-      <c r="C30" s="54" t="s">
+      <c r="B30" s="9"/>
+      <c r="C30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="55">
+      <c r="D30" s="3">
         <v>0.69937000000000005</v>
       </c>
-      <c r="E30" s="55">
+      <c r="E30" s="3">
         <v>0.66246000000000005</v>
       </c>
-      <c r="F30" s="55">
+      <c r="F30" s="3">
         <v>0.67095000000000005</v>
       </c>
-      <c r="G30" s="55">
+      <c r="G30" s="3">
         <v>0.65497000000000005</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="33"/>
-      <c r="C31" s="56" t="s">
+      <c r="B31" s="10"/>
+      <c r="C31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="57">
+      <c r="D31" s="5">
         <v>0.73126999999999998</v>
       </c>
-      <c r="E31" s="57">
+      <c r="E31" s="5">
         <v>0.64249999999999996</v>
       </c>
-      <c r="F31" s="57">
+      <c r="F31" s="5">
         <v>0.72231000000000001</v>
       </c>
-      <c r="G31" s="57">
+      <c r="G31" s="5">
         <v>0.72963999999999996</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="53">
+      <c r="D32" s="24">
         <v>0.61729999999999996</v>
       </c>
-      <c r="E32" s="53">
+      <c r="E32" s="24">
         <v>0.60872000000000004</v>
       </c>
-      <c r="F32" s="53">
+      <c r="F32" s="24">
         <v>0.58067000000000002</v>
       </c>
-      <c r="G32" s="53">
+      <c r="G32" s="24">
         <v>0.55767</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="32"/>
-      <c r="C33" s="54" t="s">
+      <c r="B33" s="9"/>
+      <c r="C33" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="55">
+      <c r="D33" s="34">
         <v>0.625</v>
       </c>
-      <c r="E33" s="55">
+      <c r="E33" s="34">
         <v>0.61667000000000005</v>
       </c>
-      <c r="F33" s="55">
+      <c r="F33" s="34">
         <v>0.59211000000000003</v>
       </c>
-      <c r="G33" s="55">
+      <c r="G33" s="34">
         <v>0.56601000000000001</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="32"/>
-      <c r="C34" s="54" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="55">
+      <c r="D34" s="28">
         <v>0.66800999999999999</v>
       </c>
-      <c r="E34" s="55">
+      <c r="E34" s="28">
         <v>0.66239999999999999</v>
       </c>
-      <c r="F34" s="55">
+      <c r="F34" s="28">
         <v>0.66227000000000003</v>
       </c>
-      <c r="G34" s="55">
+      <c r="G34" s="28">
         <v>0.62204000000000004</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="32"/>
-      <c r="C35" s="54" t="s">
+      <c r="B35" s="9"/>
+      <c r="C35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="55">
+      <c r="D35" s="3">
         <v>0.57108999999999999</v>
       </c>
-      <c r="E35" s="55">
+      <c r="E35" s="3">
         <v>0.56413999999999997</v>
       </c>
-      <c r="F35" s="55">
+      <c r="F35" s="3">
         <v>0.53881000000000001</v>
       </c>
-      <c r="G35" s="55">
+      <c r="G35" s="3">
         <v>0.52619000000000005</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="33"/>
-      <c r="C36" s="56" t="s">
+      <c r="B36" s="10"/>
+      <c r="C36" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="57">
+      <c r="D36" s="5">
         <v>0.80456000000000005</v>
       </c>
-      <c r="E36" s="57">
+      <c r="E36" s="5">
         <v>0.80210999999999999</v>
       </c>
-      <c r="F36" s="57">
+      <c r="F36" s="5">
         <v>0.85911999999999999</v>
       </c>
-      <c r="G36" s="57">
+      <c r="G36" s="5">
         <v>0.76058000000000003</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="53">
+      <c r="D37" s="24">
         <v>0.57013999999999998</v>
       </c>
-      <c r="E37" s="53">
+      <c r="E37" s="24">
         <v>0.58689999999999998</v>
       </c>
-      <c r="F37" s="53">
+      <c r="F37" s="24">
         <v>0.55767</v>
       </c>
-      <c r="G37" s="53">
+      <c r="G37" s="24">
         <v>0.57950000000000002</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="32"/>
-      <c r="C38" s="54" t="s">
+      <c r="B38" s="9"/>
+      <c r="C38" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="55">
+      <c r="D38" s="34">
         <v>0.56127000000000005</v>
       </c>
-      <c r="E38" s="55">
+      <c r="E38" s="34">
         <v>0.58067999999999997</v>
       </c>
-      <c r="F38" s="55">
+      <c r="F38" s="34">
         <v>0.55205000000000004</v>
       </c>
-      <c r="G38" s="55">
+      <c r="G38" s="34">
         <v>0.56866000000000005</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="32"/>
-      <c r="C39" s="54" t="s">
+      <c r="B39" s="9"/>
+      <c r="C39" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="55">
+      <c r="D39" s="28">
         <v>0.44095000000000001</v>
       </c>
-      <c r="E39" s="55">
+      <c r="E39" s="28">
         <v>0.50234000000000001</v>
       </c>
-      <c r="F39" s="55">
+      <c r="F39" s="28">
         <v>0.47671000000000002</v>
       </c>
-      <c r="G39" s="55">
+      <c r="G39" s="28">
         <v>0.41832000000000003</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="32"/>
-      <c r="C40" s="54" t="s">
+      <c r="B40" s="9"/>
+      <c r="C40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="55">
+      <c r="D40" s="3">
         <v>0.58389000000000002</v>
       </c>
-      <c r="E40" s="55">
+      <c r="E40" s="3">
         <v>0.59311999999999998</v>
       </c>
-      <c r="F40" s="55">
+      <c r="F40" s="3">
         <v>0.54940999999999995</v>
       </c>
-      <c r="G40" s="55">
+      <c r="G40" s="3">
         <v>0.61880999999999997</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="33"/>
-      <c r="C41" s="56" t="s">
+      <c r="B41" s="10"/>
+      <c r="C41" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="57">
+      <c r="D41" s="5">
         <v>0.35422999999999999</v>
       </c>
-      <c r="E41" s="57">
+      <c r="E41" s="5">
         <v>0.43565999999999999</v>
       </c>
-      <c r="F41" s="57">
+      <c r="F41" s="5">
         <v>0.42099999999999999</v>
       </c>
-      <c r="G41" s="57">
+      <c r="G41" s="5">
         <v>0.31596000000000002</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C42" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="58">
+      <c r="D42" s="39">
         <v>0.55454999999999999</v>
       </c>
-      <c r="E42" s="58">
+      <c r="E42" s="39">
         <v>0.59780999999999995</v>
       </c>
-      <c r="F42" s="58">
+      <c r="F42" s="39">
         <v>0.53818999999999995</v>
       </c>
-      <c r="G42" s="58">
+      <c r="G42" s="39">
         <v>0.54559000000000002</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="32"/>
-      <c r="C43" s="54" t="s">
+      <c r="B43" s="9"/>
+      <c r="C43" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="55">
+      <c r="D43" s="34">
         <v>0.54818999999999996</v>
       </c>
-      <c r="E43" s="55">
+      <c r="E43" s="34">
         <v>0.59284999999999999</v>
       </c>
-      <c r="F43" s="55">
+      <c r="F43" s="34">
         <v>0.53481000000000001</v>
       </c>
-      <c r="G43" s="55">
+      <c r="G43" s="34">
         <v>0.53979999999999995</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="32"/>
-      <c r="C44" s="54" t="s">
+      <c r="B44" s="9"/>
+      <c r="C44" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="55">
+      <c r="D44" s="28">
         <v>0.46211000000000002</v>
       </c>
-      <c r="E44" s="55">
+      <c r="E44" s="28">
         <v>0.53176000000000001</v>
       </c>
-      <c r="F44" s="55">
+      <c r="F44" s="28">
         <v>0.4859</v>
       </c>
-      <c r="G44" s="55">
+      <c r="G44" s="28">
         <v>0.46017999999999998</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B45" s="32"/>
-      <c r="C45" s="54" t="s">
+      <c r="B45" s="9"/>
+      <c r="C45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="55">
+      <c r="D45" s="3">
         <v>0.54737999999999998</v>
       </c>
-      <c r="E45" s="55">
+      <c r="E45" s="3">
         <v>0.60040000000000004</v>
       </c>
-      <c r="F45" s="55">
+      <c r="F45" s="3">
         <v>0.51995999999999998</v>
       </c>
-      <c r="G45" s="55">
+      <c r="G45" s="3">
         <v>0.53325999999999996</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="33"/>
-      <c r="C46" s="56" t="s">
+      <c r="B46" s="10"/>
+      <c r="C46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="57">
+      <c r="D46" s="5">
         <v>0.39983000000000002</v>
       </c>
-      <c r="E46" s="57">
+      <c r="E46" s="5">
         <v>0.47719</v>
       </c>
-      <c r="F46" s="57">
+      <c r="F46" s="5">
         <v>0.45601999999999998</v>
       </c>
-      <c r="G46" s="57">
+      <c r="G46" s="5">
         <v>0.40472000000000002</v>
       </c>
     </row>
@@ -1836,8 +1724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="A13" zoomScale="75" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1853,781 +1741,788 @@
     </row>
     <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="25" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="24">
         <v>0.95326999999999995</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="24">
         <v>0.94810000000000005</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="24">
         <v>0.95306999999999997</v>
       </c>
-      <c r="G7" s="59">
+      <c r="G7" s="26">
         <v>0.95306999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="17"/>
-      <c r="C8" s="54" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="34">
         <v>0.92222000000000004</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="34">
         <v>0.90693999999999997</v>
       </c>
-      <c r="F8" s="55">
+      <c r="F8" s="34">
         <v>0.91869000000000001</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="35">
         <v>0.91722999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="17"/>
-      <c r="C9" s="54" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="28">
         <v>0.9718</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="28">
         <v>0.96877999999999997</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="28">
         <v>0.97172000000000003</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="30">
         <v>0.97174000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="17"/>
-      <c r="C10" s="54" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="3">
         <v>0.97448000000000001</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="3">
         <v>0.96841999999999995</v>
       </c>
-      <c r="F10" s="55">
+      <c r="F10" s="3">
         <v>0.97280999999999995</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G10" s="6">
         <v>0.97211000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="56" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="5">
         <v>0.96914</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="5">
         <v>0.96914</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="5">
         <v>0.97062999999999999</v>
       </c>
-      <c r="G11" s="61">
+      <c r="G11" s="7">
         <v>0.97138000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="53">
+      <c r="D12" s="24">
         <v>0.94603999999999999</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="24">
         <v>0.94003999999999999</v>
       </c>
-      <c r="F12" s="53">
+      <c r="F12" s="24">
         <v>0.95492999999999995</v>
       </c>
-      <c r="G12" s="59">
+      <c r="G12" s="26">
         <v>0.95140999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="32"/>
-      <c r="C13" s="54" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D13" s="34">
         <v>0.87941000000000003</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="34">
         <v>0.88407000000000002</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="34">
         <v>0.92954999999999999</v>
       </c>
-      <c r="G13" s="60">
+      <c r="G13" s="35">
         <v>0.91476999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="32"/>
-      <c r="C14" s="54" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="28">
         <v>0.96792999999999996</v>
       </c>
-      <c r="E14" s="55">
+      <c r="E14" s="28">
         <v>0.96409</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14" s="28">
         <v>0.97274000000000005</v>
       </c>
-      <c r="G14" s="60">
+      <c r="G14" s="30">
         <v>0.97074000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="32"/>
-      <c r="C15" s="54" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15" s="3">
         <v>0.95606000000000002</v>
       </c>
-      <c r="E15" s="55">
+      <c r="E15" s="3">
         <v>0.95957000000000003</v>
       </c>
-      <c r="F15" s="55">
+      <c r="F15" s="3">
         <v>0.97763</v>
       </c>
-      <c r="G15" s="60">
+      <c r="G15" s="6">
         <v>0.97135000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="33"/>
-      <c r="C16" s="56" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="57">
+      <c r="D16" s="5">
         <v>0.98009000000000002</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="5">
         <v>0.96863999999999995</v>
       </c>
-      <c r="F16" s="57">
+      <c r="F16" s="5">
         <v>0.96789999999999998</v>
       </c>
-      <c r="G16" s="61">
+      <c r="G16" s="7">
         <v>0.97014</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="24">
         <v>0.85321000000000002</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E17" s="24">
         <v>0.86892000000000003</v>
       </c>
-      <c r="F17" s="53">
+      <c r="F17" s="24">
         <v>0.87780999999999998</v>
       </c>
-      <c r="G17" s="59">
+      <c r="G17" s="26">
         <v>0.83087999999999995</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="32"/>
-      <c r="C18" s="54" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="55">
+      <c r="D18" s="34">
         <v>0.57330999999999999</v>
       </c>
-      <c r="E18" s="55">
+      <c r="E18" s="34">
         <v>0.63436999999999999</v>
       </c>
-      <c r="F18" s="55">
+      <c r="F18" s="34">
         <v>0.69181000000000004</v>
       </c>
-      <c r="G18" s="60">
+      <c r="G18" s="35">
         <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="32"/>
-      <c r="C19" s="54" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D19" s="28">
         <v>0.91854999999999998</v>
       </c>
-      <c r="E19" s="55">
+      <c r="E19" s="28">
         <v>0.92612000000000005</v>
       </c>
-      <c r="F19" s="55">
+      <c r="F19" s="28">
         <v>0.92972999999999995</v>
       </c>
-      <c r="G19" s="60">
+      <c r="G19" s="30">
         <v>0.90763000000000005</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="32"/>
-      <c r="C20" s="54" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="3">
         <v>0.85209000000000001</v>
       </c>
-      <c r="E20" s="55">
+      <c r="E20" s="3">
         <v>0.87090999999999996</v>
       </c>
-      <c r="F20" s="55">
+      <c r="F20" s="3">
         <v>0.89024999999999999</v>
       </c>
-      <c r="G20" s="60">
+      <c r="G20" s="6">
         <v>0.83087999999999995</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="33"/>
-      <c r="C21" s="56" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="57">
+      <c r="D21" s="5">
         <v>0.99626000000000003</v>
       </c>
-      <c r="E21" s="57">
+      <c r="E21" s="5">
         <v>0.98880000000000001</v>
       </c>
-      <c r="F21" s="57">
+      <c r="F21" s="5">
         <v>0.97287000000000001</v>
       </c>
-      <c r="G21" s="61">
+      <c r="G21" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="53">
+      <c r="D22" s="24">
         <v>0.84658999999999995</v>
       </c>
-      <c r="E22" s="53">
+      <c r="E22" s="24">
         <v>0.86746999999999996</v>
       </c>
-      <c r="F22" s="53">
+      <c r="F22" s="24">
         <v>0.87905</v>
       </c>
-      <c r="G22" s="59">
+      <c r="G22" s="26">
         <v>0.83079999999999998</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="32"/>
-      <c r="C23" s="54" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D23" s="34">
         <v>0.55034000000000005</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E23" s="34">
         <v>0.63544999999999996</v>
       </c>
-      <c r="F23" s="55">
+      <c r="F23" s="34">
         <v>0.69255999999999995</v>
       </c>
-      <c r="G23" s="60">
+      <c r="G23" s="35">
         <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="32"/>
-      <c r="C24" s="54" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="55">
+      <c r="D24" s="28">
         <v>0.91532999999999998</v>
       </c>
-      <c r="E24" s="55">
+      <c r="E24" s="28">
         <v>0.92517000000000005</v>
       </c>
-      <c r="F24" s="55">
+      <c r="F24" s="28">
         <v>0.93049000000000004</v>
       </c>
-      <c r="G24" s="60">
+      <c r="G24" s="30">
         <v>0.90763000000000005</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="32"/>
-      <c r="C25" s="54" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="55">
+      <c r="D25" s="3">
         <v>0.84531000000000001</v>
       </c>
-      <c r="E25" s="55">
+      <c r="E25" s="3">
         <v>0.87136999999999998</v>
       </c>
-      <c r="F25" s="55">
+      <c r="F25" s="3">
         <v>0.89039999999999997</v>
       </c>
-      <c r="G25" s="60">
+      <c r="G25" s="6">
         <v>0.83087999999999995</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="33"/>
-      <c r="C26" s="56" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="57">
+      <c r="D26" s="5">
         <v>0.998</v>
       </c>
-      <c r="E26" s="57">
+      <c r="E26" s="5">
         <v>0.98606000000000005</v>
       </c>
-      <c r="F26" s="57">
+      <c r="F26" s="5">
         <v>0.97436999999999996</v>
       </c>
-      <c r="G26" s="61">
+      <c r="G26" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="53">
+      <c r="D27" s="24">
         <v>0.85052000000000005</v>
       </c>
-      <c r="E27" s="53">
+      <c r="E27" s="24">
         <v>0.82489000000000001</v>
       </c>
-      <c r="F27" s="53">
+      <c r="F27" s="24">
         <v>0.85114000000000001</v>
       </c>
-      <c r="G27" s="59">
+      <c r="G27" s="26">
         <v>0.84101000000000004</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="32"/>
-      <c r="C28" s="54" t="s">
+      <c r="B28" s="9"/>
+      <c r="C28" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="55">
+      <c r="D28" s="34">
         <v>0.72213000000000005</v>
       </c>
-      <c r="E28" s="55">
+      <c r="E28" s="34">
         <v>0.60836000000000001</v>
       </c>
-      <c r="F28" s="55">
+      <c r="F28" s="34">
         <v>0.72153</v>
       </c>
-      <c r="G28" s="60">
+      <c r="G28" s="35">
         <v>0.64434999999999998</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="32"/>
-      <c r="C29" s="54" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="55">
+      <c r="D29" s="28">
         <v>0.91059000000000001</v>
       </c>
-      <c r="E29" s="55">
+      <c r="E29" s="28">
         <v>0.89876</v>
       </c>
-      <c r="F29" s="55">
+      <c r="F29" s="28">
         <v>0.91103999999999996</v>
       </c>
-      <c r="G29" s="60">
+      <c r="G29" s="30">
         <v>0.90776000000000001</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="32"/>
-      <c r="C30" s="54" t="s">
+      <c r="B30" s="9"/>
+      <c r="C30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="55">
+      <c r="D30" s="3">
         <v>0.90510999999999997</v>
       </c>
-      <c r="E30" s="55">
+      <c r="E30" s="3">
         <v>0.86475999999999997</v>
       </c>
-      <c r="F30" s="55">
+      <c r="F30" s="3">
         <v>0.90478000000000003</v>
       </c>
-      <c r="G30" s="60">
+      <c r="G30" s="6">
         <v>0.87633000000000005</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="33"/>
-      <c r="C31" s="56" t="s">
+      <c r="B31" s="10"/>
+      <c r="C31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="57">
+      <c r="D31" s="5">
         <v>0.91613999999999995</v>
       </c>
-      <c r="E31" s="57">
+      <c r="E31" s="5">
         <v>0.93554999999999999</v>
       </c>
-      <c r="F31" s="57">
+      <c r="F31" s="5">
         <v>0.91739000000000004</v>
       </c>
-      <c r="G31" s="61">
+      <c r="G31" s="7">
         <v>0.94152000000000002</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="53">
+      <c r="D32" s="24">
         <v>0.83977000000000002</v>
       </c>
-      <c r="E32" s="53">
+      <c r="E32" s="24">
         <v>0.86085999999999996</v>
       </c>
-      <c r="F32" s="53">
+      <c r="F32" s="24">
         <v>0.83977000000000002</v>
       </c>
-      <c r="G32" s="59">
+      <c r="G32" s="26">
         <v>0.83087999999999995</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="32"/>
-      <c r="C33" s="54" t="s">
+      <c r="B33" s="9"/>
+      <c r="C33" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="55">
+      <c r="D33" s="34">
         <v>0.61634</v>
       </c>
-      <c r="E33" s="55">
+      <c r="E33" s="34">
         <v>0.64753000000000005</v>
       </c>
-      <c r="F33" s="55">
+      <c r="F33" s="34">
         <v>0.67720000000000002</v>
       </c>
-      <c r="G33" s="60">
+      <c r="G33" s="35">
         <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="32"/>
-      <c r="C34" s="54" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="55">
+      <c r="D34" s="28">
         <v>0.90820000000000001</v>
       </c>
-      <c r="E34" s="55">
+      <c r="E34" s="28">
         <v>0.92052999999999996</v>
       </c>
-      <c r="F34" s="55">
+      <c r="F34" s="28">
         <v>0.90539999999999998</v>
       </c>
-      <c r="G34" s="60">
+      <c r="G34" s="30">
         <v>0.90763000000000005</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="32"/>
-      <c r="C35" s="54" t="s">
+      <c r="B35" s="9"/>
+      <c r="C35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="55">
+      <c r="D35" s="3">
         <v>0.86663000000000001</v>
       </c>
-      <c r="E35" s="55">
+      <c r="E35" s="3">
         <v>0.87595000000000001</v>
       </c>
-      <c r="F35" s="55">
+      <c r="F35" s="3">
         <v>0.88858999999999999</v>
       </c>
-      <c r="G35" s="60">
+      <c r="G35" s="6">
         <v>0.83087999999999995</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="33"/>
-      <c r="C36" s="56" t="s">
+      <c r="B36" s="10"/>
+      <c r="C36" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="57">
+      <c r="D36" s="5">
         <v>0.95396000000000003</v>
       </c>
-      <c r="E36" s="57">
+      <c r="E36" s="5">
         <v>0.96989000000000003</v>
       </c>
-      <c r="F36" s="57">
+      <c r="F36" s="5">
         <v>0.92286000000000001</v>
       </c>
-      <c r="G36" s="61">
+      <c r="G36" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="53">
+      <c r="D37" s="24">
         <v>0.77195999999999998</v>
       </c>
-      <c r="E37" s="53">
+      <c r="E37" s="24">
         <v>0.79925000000000002</v>
       </c>
-      <c r="F37" s="53">
+      <c r="F37" s="24">
         <v>0.70084000000000002</v>
       </c>
-      <c r="G37" s="59">
+      <c r="G37" s="26">
         <v>0.83087999999999995</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="32"/>
-      <c r="C38" s="54" t="s">
+      <c r="B38" s="9"/>
+      <c r="C38" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="55">
+      <c r="D38" s="34">
         <v>0.48937000000000003</v>
       </c>
-      <c r="E38" s="55">
+      <c r="E38" s="34">
         <v>0.55057999999999996</v>
       </c>
-      <c r="F38" s="55">
+      <c r="F38" s="34">
         <v>0.49818000000000001</v>
       </c>
-      <c r="G38" s="60">
+      <c r="G38" s="35">
         <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="32"/>
-      <c r="C39" s="54" t="s">
+      <c r="B39" s="9"/>
+      <c r="C39" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="55">
+      <c r="D39" s="28">
         <v>0.86975999999999998</v>
       </c>
-      <c r="E39" s="55">
+      <c r="E39" s="28">
         <v>0.88463000000000003</v>
       </c>
-      <c r="F39" s="55">
+      <c r="F39" s="28">
         <v>0.81713000000000002</v>
       </c>
-      <c r="G39" s="60">
+      <c r="G39" s="30">
         <v>0.90763000000000005</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="32"/>
-      <c r="C40" s="54" t="s">
+      <c r="B40" s="9"/>
+      <c r="C40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="55">
+      <c r="D40" s="3">
         <v>0.82764000000000004</v>
       </c>
-      <c r="E40" s="55">
+      <c r="E40" s="3">
         <v>0.84652000000000005</v>
       </c>
-      <c r="F40" s="55">
+      <c r="F40" s="3">
         <v>0.83025000000000004</v>
       </c>
-      <c r="G40" s="60">
+      <c r="G40" s="6">
         <v>0.83087999999999995</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="33"/>
-      <c r="C41" s="56" t="s">
+      <c r="B41" s="10"/>
+      <c r="C41" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="57">
+      <c r="D41" s="5">
         <v>0.91639000000000004</v>
       </c>
-      <c r="E41" s="57">
+      <c r="E41" s="5">
         <v>0.92634000000000005</v>
       </c>
-      <c r="F41" s="57">
+      <c r="F41" s="5">
         <v>0.80442000000000002</v>
       </c>
-      <c r="G41" s="61">
+      <c r="G41" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C42" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="58">
+      <c r="D42" s="39">
         <v>0.81247999999999998</v>
       </c>
-      <c r="E42" s="58">
+      <c r="E42" s="39">
         <v>0.78622999999999998</v>
       </c>
-      <c r="F42" s="58">
+      <c r="F42" s="39">
         <v>0.71945000000000003</v>
       </c>
-      <c r="G42" s="62">
+      <c r="G42" s="41">
         <v>0.83087999999999995</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="32"/>
-      <c r="C43" s="54" t="s">
+      <c r="B43" s="9"/>
+      <c r="C43" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="55">
+      <c r="D43" s="34">
         <v>0.49184</v>
       </c>
-      <c r="E43" s="55">
+      <c r="E43" s="34">
         <v>0.50573999999999997</v>
       </c>
-      <c r="F43" s="55">
+      <c r="F43" s="34">
         <v>0.50207000000000002</v>
       </c>
-      <c r="G43" s="60">
+      <c r="G43" s="35">
         <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="32"/>
-      <c r="C44" s="54" t="s">
+      <c r="B44" s="9"/>
+      <c r="C44" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="55">
+      <c r="D44" s="28">
         <v>0.89639999999999997</v>
       </c>
-      <c r="E44" s="55">
+      <c r="E44" s="28">
         <v>0.87843000000000004</v>
       </c>
-      <c r="F44" s="55">
+      <c r="F44" s="28">
         <v>0.83106999999999998</v>
       </c>
-      <c r="G44" s="60">
+      <c r="G44" s="30">
         <v>0.90763000000000005</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B45" s="32"/>
-      <c r="C45" s="54" t="s">
+      <c r="B45" s="9"/>
+      <c r="C45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="55">
+      <c r="D45" s="3">
         <v>0.82854000000000005</v>
       </c>
-      <c r="E45" s="55">
+      <c r="E45" s="3">
         <v>0.83262000000000003</v>
       </c>
-      <c r="F45" s="55">
+      <c r="F45" s="3">
         <v>0.83157999999999999</v>
       </c>
-      <c r="G45" s="60">
+      <c r="G45" s="6">
         <v>0.83087999999999995</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="33"/>
-      <c r="C46" s="56" t="s">
+      <c r="B46" s="10"/>
+      <c r="C46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="57">
+      <c r="D46" s="5">
         <v>0.97636000000000001</v>
       </c>
-      <c r="E46" s="57">
+      <c r="E46" s="5">
         <v>0.92957999999999996</v>
       </c>
-      <c r="F46" s="57">
+      <c r="F46" s="5">
         <v>0.83055000000000001</v>
       </c>
-      <c r="G46" s="61">
+      <c r="G46" s="7">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
     <mergeCell ref="B37:B41"/>
     <mergeCell ref="B42:B46"/>
     <mergeCell ref="B7:B11"/>
@@ -2636,13 +2531,6 @@
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2652,8 +2540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A2" zoomScale="88" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2664,466 +2552,793 @@
   <sheetData>
     <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="25" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
-      <c r="C8" s="23" t="s">
+      <c r="D7" s="44">
+        <v>0.88537999999999994</v>
+      </c>
+      <c r="E7" s="44">
+        <v>0.89744999999999997</v>
+      </c>
+      <c r="F7" s="44">
+        <v>0.89790999999999999</v>
+      </c>
+      <c r="G7" s="45">
+        <v>0.88927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="15"/>
+      <c r="C8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="23" t="s">
+      <c r="D8" s="36">
+        <v>0.89793000000000001</v>
+      </c>
+      <c r="E8" s="36">
+        <v>0.90898999999999996</v>
+      </c>
+      <c r="F8" s="36">
+        <v>0.91793000000000002</v>
+      </c>
+      <c r="G8" s="37">
+        <v>0.89317000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="15"/>
+      <c r="C9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
-      <c r="C10" s="23" t="s">
+      <c r="D9" s="31">
+        <v>0.92723</v>
+      </c>
+      <c r="E9" s="31">
+        <v>0.93525999999999998</v>
+      </c>
+      <c r="F9" s="31">
+        <v>0.93525999999999998</v>
+      </c>
+      <c r="G9" s="32">
+        <v>0.93013999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="15"/>
+      <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="18"/>
-      <c r="C11" s="24" t="s">
+      <c r="D10" s="19">
+        <v>0.98111000000000004</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0.98346999999999996</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0.98824999999999996</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0.97735000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="B12" s="31" t="s">
+      <c r="D11" s="20">
+        <v>0.87895999999999996</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0.89154999999999995</v>
+      </c>
+      <c r="F11" s="20">
+        <v>0.88766999999999996</v>
+      </c>
+      <c r="G11" s="18">
+        <v>0.88727</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-    </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="B13" s="32"/>
-      <c r="C13" s="23" t="s">
+      <c r="D12" s="44">
+        <v>0.64927999999999997</v>
+      </c>
+      <c r="E12" s="44">
+        <v>0.85109999999999997</v>
+      </c>
+      <c r="F12" s="44">
+        <v>0.79862999999999995</v>
+      </c>
+      <c r="G12" s="45">
+        <v>0.73673</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="9"/>
+      <c r="C13" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="38"/>
-    </row>
-    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
-      <c r="C14" s="23" t="s">
+      <c r="D13" s="36">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="E13" s="36">
+        <v>0.88022</v>
+      </c>
+      <c r="F13" s="36">
+        <v>0.83220000000000005</v>
+      </c>
+      <c r="G13" s="37">
+        <v>0.81479999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="9"/>
+      <c r="C14" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="38"/>
-    </row>
-    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="B15" s="32"/>
-      <c r="C15" s="23" t="s">
+      <c r="D14" s="31">
+        <v>0.73660000000000003</v>
+      </c>
+      <c r="E14" s="31">
+        <v>0.90320999999999996</v>
+      </c>
+      <c r="F14" s="31">
+        <v>0.86573999999999995</v>
+      </c>
+      <c r="G14" s="32">
+        <v>0.81474000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="9"/>
+      <c r="C15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="38"/>
-    </row>
-    <row r="16" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="33"/>
-      <c r="C16" s="24" t="s">
+      <c r="D15" s="19">
+        <v>0.97943000000000002</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0.98187999999999998</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0.97038999999999997</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0.98072999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="C16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="47"/>
+      <c r="D16" s="20">
+        <v>0.59025000000000005</v>
+      </c>
+      <c r="E16" s="20">
+        <v>0.83621000000000001</v>
+      </c>
+      <c r="F16" s="20">
+        <v>0.78146000000000004</v>
+      </c>
+      <c r="G16" s="18">
+        <v>0.69679999999999997</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="9"/>
+      <c r="D17" s="44">
+        <v>0.40409</v>
+      </c>
+      <c r="E17" s="44">
+        <v>0.41835</v>
+      </c>
+      <c r="F17" s="44">
+        <v>0.48144999999999999</v>
+      </c>
+      <c r="G17" s="45">
+        <v>0.16919000000000001</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="32"/>
-      <c r="C18" s="44" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="38"/>
+      <c r="D18" s="36">
+        <v>0.63144</v>
+      </c>
+      <c r="E18" s="36">
+        <v>0.63427999999999995</v>
+      </c>
+      <c r="F18" s="36">
+        <v>0.64646999999999999</v>
+      </c>
+      <c r="G18" s="37">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="32"/>
-      <c r="C19" s="44" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="38"/>
+      <c r="D19" s="31">
+        <v>0.44522</v>
+      </c>
+      <c r="E19" s="31">
+        <v>0.46798000000000001</v>
+      </c>
+      <c r="F19" s="31">
+        <v>0.55991000000000002</v>
+      </c>
+      <c r="G19" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="32"/>
-      <c r="C20" s="44" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="38"/>
+      <c r="D20" s="19">
+        <v>0.98265999999999998</v>
+      </c>
+      <c r="E20" s="19">
+        <v>0.97463</v>
+      </c>
+      <c r="F20" s="19">
+        <v>0.94930000000000003</v>
+      </c>
+      <c r="G20" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="33"/>
-      <c r="C21" s="45" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="47"/>
+      <c r="D21" s="20">
+        <v>0.28781000000000001</v>
+      </c>
+      <c r="E21" s="20">
+        <v>0.30791000000000002</v>
+      </c>
+      <c r="F21" s="20">
+        <v>0.39705000000000001</v>
+      </c>
+      <c r="G21" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="9"/>
+      <c r="D22" s="44">
+        <v>0.40277000000000002</v>
+      </c>
+      <c r="E22" s="44">
+        <v>0.40425</v>
+      </c>
+      <c r="F22" s="44">
+        <v>0.16919000000000001</v>
+      </c>
+      <c r="G22" s="26">
+        <v>0.44886999999999999</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="32"/>
-      <c r="C23" s="44" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="38"/>
+      <c r="D23" s="36">
+        <v>0.62878999999999996</v>
+      </c>
+      <c r="E23" s="36">
+        <v>0.62258000000000002</v>
+      </c>
+      <c r="F23" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="37">
+        <v>0.63922000000000001</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="32"/>
-      <c r="C24" s="44" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="38"/>
+      <c r="D24" s="31">
+        <v>0.44411</v>
+      </c>
+      <c r="E24" s="31">
+        <v>0.44935999999999998</v>
+      </c>
+      <c r="F24" s="31">
+        <v>0</v>
+      </c>
+      <c r="G24" s="32">
+        <v>0.51451000000000002</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="32"/>
-      <c r="C25" s="44" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="38"/>
+      <c r="D25" s="19">
+        <v>0.97946</v>
+      </c>
+      <c r="E25" s="19">
+        <v>0.96804999999999997</v>
+      </c>
+      <c r="F25" s="19">
+        <v>0</v>
+      </c>
+      <c r="G25" s="17">
+        <v>0.95938000000000001</v>
+      </c>
     </row>
     <row r="26" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="33"/>
-      <c r="C26" s="45" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="39"/>
+      <c r="D26" s="20">
+        <v>0.28716000000000003</v>
+      </c>
+      <c r="E26" s="20">
+        <v>0.29258000000000001</v>
+      </c>
+      <c r="F26" s="20">
+        <v>0</v>
+      </c>
+      <c r="G26" s="18">
+        <v>0.35150999999999999</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="9"/>
+      <c r="D27" s="44">
+        <v>0.53920999999999997</v>
+      </c>
+      <c r="E27" s="44">
+        <v>0.54318</v>
+      </c>
+      <c r="F27" s="44">
+        <v>0.54103000000000001</v>
+      </c>
+      <c r="G27" s="45">
+        <v>0.48071000000000003</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="32"/>
-      <c r="C28" s="23" t="s">
+      <c r="B28" s="9"/>
+      <c r="C28" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="38"/>
+      <c r="D28" s="36">
+        <v>0.54879999999999995</v>
+      </c>
+      <c r="E28" s="36">
+        <v>0.56715000000000004</v>
+      </c>
+      <c r="F28" s="36">
+        <v>0.53042999999999996</v>
+      </c>
+      <c r="G28" s="37">
+        <v>0.51193</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="32"/>
-      <c r="C29" s="23" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="38"/>
+      <c r="D29" s="31">
+        <v>0.65832000000000002</v>
+      </c>
+      <c r="E29" s="31">
+        <v>0.65883999999999998</v>
+      </c>
+      <c r="F29" s="31">
+        <v>0.66424000000000005</v>
+      </c>
+      <c r="G29" s="32">
+        <v>0.59791000000000005</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="32"/>
-      <c r="C30" s="23" t="s">
+      <c r="B30" s="9"/>
+      <c r="C30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="38"/>
+      <c r="D30" s="19">
+        <v>0.85729999999999995</v>
+      </c>
+      <c r="E30" s="19">
+        <v>0.86795</v>
+      </c>
+      <c r="F30" s="19">
+        <v>0.84675999999999996</v>
+      </c>
+      <c r="G30" s="17">
+        <v>0.83809</v>
+      </c>
     </row>
     <row r="31" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="33"/>
-      <c r="C31" s="24" t="s">
+      <c r="B31" s="10"/>
+      <c r="C31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="42"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="39"/>
+      <c r="D31" s="20">
+        <v>0.53430999999999995</v>
+      </c>
+      <c r="E31" s="20">
+        <v>0.53093000000000001</v>
+      </c>
+      <c r="F31" s="20">
+        <v>0.54644999999999999</v>
+      </c>
+      <c r="G31" s="18">
+        <v>0.46472999999999998</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="9"/>
+      <c r="D32" s="44">
+        <v>0.70415000000000005</v>
+      </c>
+      <c r="E32" s="44">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="F32" s="44">
+        <v>0.74412999999999996</v>
+      </c>
+      <c r="G32" s="45">
+        <v>0.67235</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="32"/>
-      <c r="C33" s="23" t="s">
+      <c r="B33" s="9"/>
+      <c r="C33" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="38"/>
+      <c r="D33" s="36">
+        <v>0.63463999999999998</v>
+      </c>
+      <c r="E33" s="36">
+        <v>0.62302999999999997</v>
+      </c>
+      <c r="F33" s="36">
+        <v>0.62424999999999997</v>
+      </c>
+      <c r="G33" s="37">
+        <v>0.56684999999999997</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="32"/>
-      <c r="C34" s="23" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="38"/>
+      <c r="D34" s="31">
+        <v>0.80598999999999998</v>
+      </c>
+      <c r="E34" s="31">
+        <v>0.80118</v>
+      </c>
+      <c r="F34" s="31">
+        <v>0.83950000000000002</v>
+      </c>
+      <c r="G34" s="32">
+        <v>0.78647999999999996</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="32"/>
-      <c r="C35" s="23" t="s">
+      <c r="B35" s="9"/>
+      <c r="C35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="38"/>
+      <c r="D35" s="19">
+        <v>0.88532999999999995</v>
+      </c>
+      <c r="E35" s="19">
+        <v>0.88070000000000004</v>
+      </c>
+      <c r="F35" s="19">
+        <v>0.87656000000000001</v>
+      </c>
+      <c r="G35" s="17">
+        <v>0.85750999999999999</v>
+      </c>
     </row>
     <row r="36" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="33"/>
-      <c r="C36" s="24" t="s">
+      <c r="B36" s="10"/>
+      <c r="C36" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="42"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="39"/>
+      <c r="D36" s="20">
+        <v>0.73970999999999998</v>
+      </c>
+      <c r="E36" s="20">
+        <v>0.73482999999999998</v>
+      </c>
+      <c r="F36" s="20">
+        <v>0.80545</v>
+      </c>
+      <c r="G36" s="18">
+        <v>0.72631999999999997</v>
+      </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="40"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="9"/>
+      <c r="D37" s="44">
+        <v>0.34732000000000002</v>
+      </c>
+      <c r="E37" s="44">
+        <v>0.43001</v>
+      </c>
+      <c r="F37" s="44">
+        <v>0.38118000000000002</v>
+      </c>
+      <c r="G37" s="45">
+        <v>0.36989</v>
+      </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="32"/>
-      <c r="C38" s="23" t="s">
+      <c r="B38" s="9"/>
+      <c r="C38" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="38"/>
+      <c r="D38" s="36">
+        <v>0.56447999999999998</v>
+      </c>
+      <c r="E38" s="36">
+        <v>0.60014000000000001</v>
+      </c>
+      <c r="F38" s="36">
+        <v>0.56967999999999996</v>
+      </c>
+      <c r="G38" s="37">
+        <v>0.56696999999999997</v>
+      </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="32"/>
-      <c r="C39" s="23" t="s">
+      <c r="B39" s="9"/>
+      <c r="C39" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="38"/>
+      <c r="D39" s="31">
+        <v>0.37556</v>
+      </c>
+      <c r="E39" s="31">
+        <v>0.49997999999999998</v>
+      </c>
+      <c r="F39" s="31">
+        <v>0.43331999999999998</v>
+      </c>
+      <c r="G39" s="32">
+        <v>0.41506999999999999</v>
+      </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="32"/>
-      <c r="C40" s="23" t="s">
+      <c r="B40" s="9"/>
+      <c r="C40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="38"/>
+      <c r="D40" s="19">
+        <v>0.91534000000000004</v>
+      </c>
+      <c r="E40" s="19">
+        <v>0.92188000000000003</v>
+      </c>
+      <c r="F40" s="19">
+        <v>0.90580000000000005</v>
+      </c>
+      <c r="G40" s="17">
+        <v>0.90720999999999996</v>
+      </c>
     </row>
     <row r="41" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="33"/>
-      <c r="C41" s="24" t="s">
+      <c r="B41" s="10"/>
+      <c r="C41" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="42"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="39"/>
+      <c r="D41" s="20">
+        <v>0.23624999999999999</v>
+      </c>
+      <c r="E41" s="20">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="F41" s="20">
+        <v>0.28477000000000002</v>
+      </c>
+      <c r="G41" s="18">
+        <v>0.26909</v>
+      </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="40"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="9"/>
+      <c r="D42" s="42">
+        <v>0.40037</v>
+      </c>
+      <c r="E42" s="42">
+        <v>0.50126000000000004</v>
+      </c>
+      <c r="F42" s="42">
+        <v>0.45717999999999998</v>
+      </c>
+      <c r="G42" s="43">
+        <v>0.43004999999999999</v>
+      </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="32"/>
-      <c r="C43" s="23" t="s">
+      <c r="B43" s="9"/>
+      <c r="C43" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="38"/>
+      <c r="D43" s="36">
+        <v>0.58726</v>
+      </c>
+      <c r="E43" s="36">
+        <v>0.63036000000000003</v>
+      </c>
+      <c r="F43" s="36">
+        <v>0.58584000000000003</v>
+      </c>
+      <c r="G43" s="37">
+        <v>0.58411000000000002</v>
+      </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="32"/>
-      <c r="C44" s="23" t="s">
+      <c r="B44" s="9"/>
+      <c r="C44" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="38"/>
+      <c r="D44" s="31">
+        <v>0.45785999999999999</v>
+      </c>
+      <c r="E44" s="31">
+        <v>0.59182999999999997</v>
+      </c>
+      <c r="F44" s="31">
+        <v>0.54505000000000003</v>
+      </c>
+      <c r="G44" s="32">
+        <v>0.50593999999999995</v>
+      </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B45" s="32"/>
-      <c r="C45" s="23" t="s">
+      <c r="B45" s="9"/>
+      <c r="C45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="41"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="38"/>
+      <c r="D45" s="19">
+        <v>0.91993000000000003</v>
+      </c>
+      <c r="E45" s="19">
+        <v>0.92451000000000005</v>
+      </c>
+      <c r="F45" s="19">
+        <v>0.89739999999999998</v>
+      </c>
+      <c r="G45" s="17">
+        <v>0.90405999999999997</v>
+      </c>
     </row>
     <row r="46" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="33"/>
-      <c r="C46" s="24" t="s">
+      <c r="B46" s="10"/>
+      <c r="C46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="42"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="39"/>
+      <c r="D46" s="20">
+        <v>0.30478</v>
+      </c>
+      <c r="E46" s="20">
+        <v>0.43522</v>
+      </c>
+      <c r="F46" s="20">
+        <v>0.39138000000000001</v>
+      </c>
+      <c r="G46" s="18">
+        <v>0.35126000000000002</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
     <mergeCell ref="B37:B41"/>
     <mergeCell ref="B42:B46"/>
     <mergeCell ref="B7:B11"/>
@@ -3132,13 +3347,6 @@
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3148,8 +3356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView zoomScale="118" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3160,466 +3368,793 @@
   <sheetData>
     <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="25" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
-      <c r="C8" s="23" t="s">
+      <c r="D7" s="24">
+        <v>0.79586000000000001</v>
+      </c>
+      <c r="E7" s="25">
+        <v>0.69703000000000004</v>
+      </c>
+      <c r="F7" s="24">
+        <v>0.77442999999999995</v>
+      </c>
+      <c r="G7" s="26">
+        <v>0.72189999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="15"/>
+      <c r="C8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="23" t="s">
+      <c r="D8" s="34">
+        <v>0.80210999999999999</v>
+      </c>
+      <c r="E8" s="38">
+        <v>0.70752999999999999</v>
+      </c>
+      <c r="F8" s="34">
+        <v>0.78183999999999998</v>
+      </c>
+      <c r="G8" s="35">
+        <v>0.73150000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="15"/>
+      <c r="C9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
-      <c r="C10" s="23" t="s">
+      <c r="D9" s="28">
+        <v>0.81618999999999997</v>
+      </c>
+      <c r="E9" s="29">
+        <v>0.75033000000000005</v>
+      </c>
+      <c r="F9" s="28">
+        <v>0.80188000000000004</v>
+      </c>
+      <c r="G9" s="30">
+        <v>0.76666999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="15"/>
+      <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="18"/>
-      <c r="C11" s="24" t="s">
+      <c r="D10" s="3">
+        <v>0.71701000000000004</v>
+      </c>
+      <c r="E10" s="21">
+        <v>0.61939999999999995</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.69157999999999997</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.64044000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="B12" s="31" t="s">
+      <c r="D11" s="5">
+        <v>0.94721999999999995</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0.95145000000000002</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.95406000000000002</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.95487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-    </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="B13" s="32"/>
-      <c r="C13" s="23" t="s">
+      <c r="D12" s="24">
+        <v>0.59641</v>
+      </c>
+      <c r="E12" s="25">
+        <v>0.63421000000000005</v>
+      </c>
+      <c r="F12" s="24">
+        <v>0.67817000000000005</v>
+      </c>
+      <c r="G12" s="26">
+        <v>0.60973999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="9"/>
+      <c r="C13" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="38"/>
-    </row>
-    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
-      <c r="C14" s="23" t="s">
+      <c r="D13" s="34">
+        <v>0.61207999999999996</v>
+      </c>
+      <c r="E13" s="38">
+        <v>0.64676999999999996</v>
+      </c>
+      <c r="F13" s="34">
+        <v>0.68991999999999998</v>
+      </c>
+      <c r="G13" s="35">
+        <v>0.62465000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="9"/>
+      <c r="C14" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="38"/>
-    </row>
-    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="B15" s="32"/>
-      <c r="C15" s="23" t="s">
+      <c r="D14" s="28">
+        <v>0.69832000000000005</v>
+      </c>
+      <c r="E14" s="29">
+        <v>0.71064000000000005</v>
+      </c>
+      <c r="F14" s="28">
+        <v>0.74117</v>
+      </c>
+      <c r="G14" s="30">
+        <v>0.70426999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="9"/>
+      <c r="C15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="38"/>
-    </row>
-    <row r="16" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="33"/>
-      <c r="C16" s="24" t="s">
+      <c r="D15" s="3">
+        <v>0.54357999999999995</v>
+      </c>
+      <c r="E15" s="21">
+        <v>0.57172000000000001</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.60240000000000005</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.55244000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="C16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="47"/>
+      <c r="D16" s="5">
+        <v>0.97621000000000002</v>
+      </c>
+      <c r="E16" s="22">
+        <v>0.93874999999999997</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.96301999999999999</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.97116000000000002</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="9"/>
+      <c r="D17" s="24">
+        <v>0.49671999999999999</v>
+      </c>
+      <c r="E17" s="25">
+        <v>0.50444</v>
+      </c>
+      <c r="F17" s="24">
+        <v>0.54044999999999999</v>
+      </c>
+      <c r="G17" s="26">
+        <v>0.50427999999999995</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="32"/>
-      <c r="C18" s="44" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="38"/>
+      <c r="D18" s="34">
+        <v>0.51731000000000005</v>
+      </c>
+      <c r="E18" s="38">
+        <v>0.52417000000000002</v>
+      </c>
+      <c r="F18" s="34">
+        <v>0.55735000000000001</v>
+      </c>
+      <c r="G18" s="35">
+        <v>0.52427000000000001</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="32"/>
-      <c r="C19" s="44" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="38"/>
+      <c r="D19" s="28">
+        <v>0.65439000000000003</v>
+      </c>
+      <c r="E19" s="29">
+        <v>0.65490000000000004</v>
+      </c>
+      <c r="F19" s="28">
+        <v>0.66427000000000003</v>
+      </c>
+      <c r="G19" s="30">
+        <v>0.65620999999999996</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="32"/>
-      <c r="C20" s="44" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="38"/>
+      <c r="D20" s="3">
+        <v>0.48731999999999998</v>
+      </c>
+      <c r="E20" s="21">
+        <v>0.49108000000000002</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.51063000000000003</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.49106</v>
+      </c>
     </row>
     <row r="21" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="33"/>
-      <c r="C21" s="45" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="47"/>
+      <c r="D21" s="5">
+        <v>0.99575999999999998</v>
+      </c>
+      <c r="E21" s="22">
+        <v>0.98272999999999999</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.95015000000000005</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.98875999999999997</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="9"/>
+      <c r="D22" s="24">
+        <v>0.49593999999999999</v>
+      </c>
+      <c r="E22" s="25">
+        <v>0.50287999999999999</v>
+      </c>
+      <c r="F22" s="24">
+        <v>0.53412999999999999</v>
+      </c>
+      <c r="G22" s="26">
+        <v>0.47848000000000002</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="32"/>
-      <c r="C23" s="44" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="38"/>
+      <c r="D23" s="34">
+        <v>0.51658000000000004</v>
+      </c>
+      <c r="E23" s="38">
+        <v>0.52275000000000005</v>
+      </c>
+      <c r="F23" s="34">
+        <v>0.55196999999999996</v>
+      </c>
+      <c r="G23" s="35">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="32"/>
-      <c r="C24" s="44" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="38"/>
+      <c r="D24" s="28">
+        <v>0.65415000000000001</v>
+      </c>
+      <c r="E24" s="29">
+        <v>0.65464</v>
+      </c>
+      <c r="F24" s="28">
+        <v>0.66501999999999994</v>
+      </c>
+      <c r="G24" s="30">
+        <v>0.64725999999999995</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="32"/>
-      <c r="C25" s="44" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="38"/>
+      <c r="D25" s="3">
+        <v>0.48693999999999998</v>
+      </c>
+      <c r="E25" s="21">
+        <v>0.49030000000000001</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.50692000000000004</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.47848000000000002</v>
+      </c>
     </row>
     <row r="26" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="33"/>
-      <c r="C26" s="45" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="39"/>
+      <c r="D26" s="5">
+        <v>0.99624999999999997</v>
+      </c>
+      <c r="E26" s="22">
+        <v>0.98468</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.96643999999999997</v>
+      </c>
+      <c r="G26" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="9"/>
+      <c r="D27" s="24">
+        <v>0.52103999999999995</v>
+      </c>
+      <c r="E27" s="25">
+        <v>0.53515000000000001</v>
+      </c>
+      <c r="F27" s="24">
+        <v>0.51012999999999997</v>
+      </c>
+      <c r="G27" s="26">
+        <v>0.46586</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="32"/>
-      <c r="C28" s="23" t="s">
+      <c r="B28" s="9"/>
+      <c r="C28" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="38"/>
+      <c r="D28" s="34">
+        <v>0.53366999999999998</v>
+      </c>
+      <c r="E28" s="38">
+        <v>0.55206999999999995</v>
+      </c>
+      <c r="F28" s="34">
+        <v>0.52361000000000002</v>
+      </c>
+      <c r="G28" s="35">
+        <v>0.48463000000000001</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="32"/>
-      <c r="C29" s="23" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="38"/>
+      <c r="D29" s="28">
+        <v>0.62307000000000001</v>
+      </c>
+      <c r="E29" s="29">
+        <v>0.66059000000000001</v>
+      </c>
+      <c r="F29" s="28">
+        <v>0.62048999999999999</v>
+      </c>
+      <c r="G29" s="30">
+        <v>0.62260000000000004</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="32"/>
-      <c r="C30" s="23" t="s">
+      <c r="B30" s="9"/>
+      <c r="C30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="38"/>
+      <c r="D30" s="3">
+        <v>0.49969999999999998</v>
+      </c>
+      <c r="E30" s="21">
+        <v>0.50765000000000005</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.49298999999999998</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.4703</v>
+      </c>
     </row>
     <row r="31" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="33"/>
-      <c r="C31" s="24" t="s">
+      <c r="B31" s="10"/>
+      <c r="C31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="42"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="39"/>
+      <c r="D31" s="5">
+        <v>0.82733000000000001</v>
+      </c>
+      <c r="E31" s="22">
+        <v>0.94542999999999999</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.83694000000000002</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0.92098999999999998</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="9"/>
+      <c r="D32" s="24">
+        <v>0.47638000000000003</v>
+      </c>
+      <c r="E32" s="25">
+        <v>0.52268000000000003</v>
+      </c>
+      <c r="F32" s="24">
+        <v>0.49398999999999998</v>
+      </c>
+      <c r="G32" s="26">
+        <v>0.47848000000000002</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="32"/>
-      <c r="C33" s="23" t="s">
+      <c r="B33" s="9"/>
+      <c r="C33" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="38"/>
+      <c r="D33" s="34">
+        <v>0.49317</v>
+      </c>
+      <c r="E33" s="38">
+        <v>0.54127999999999998</v>
+      </c>
+      <c r="F33" s="34">
+        <v>0.50897999999999999</v>
+      </c>
+      <c r="G33" s="35">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="32"/>
-      <c r="C34" s="23" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="38"/>
+      <c r="D34" s="28">
+        <v>0.61755000000000004</v>
+      </c>
+      <c r="E34" s="29">
+        <v>0.66127999999999998</v>
+      </c>
+      <c r="F34" s="28">
+        <v>0.61851999999999996</v>
+      </c>
+      <c r="G34" s="30">
+        <v>0.64725999999999995</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="32"/>
-      <c r="C35" s="23" t="s">
+      <c r="B35" s="9"/>
+      <c r="C35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="38"/>
+      <c r="D35" s="3">
+        <v>0.47466000000000003</v>
+      </c>
+      <c r="E35" s="21">
+        <v>0.50061999999999995</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.48376999999999998</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0.47848000000000002</v>
+      </c>
     </row>
     <row r="36" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="33"/>
-      <c r="C36" s="24" t="s">
+      <c r="B36" s="10"/>
+      <c r="C36" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="42"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="39"/>
+      <c r="D36" s="5">
+        <v>0.88353000000000004</v>
+      </c>
+      <c r="E36" s="22">
+        <v>0.97377000000000002</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.85729999999999995</v>
+      </c>
+      <c r="G36" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="40"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="9"/>
+      <c r="D37" s="24">
+        <v>0.45961999999999997</v>
+      </c>
+      <c r="E37" s="25">
+        <v>0.50826000000000005</v>
+      </c>
+      <c r="F37" s="24">
+        <v>0.46795999999999999</v>
+      </c>
+      <c r="G37" s="26">
+        <v>0.47848000000000002</v>
+      </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="32"/>
-      <c r="C38" s="23" t="s">
+      <c r="B38" s="9"/>
+      <c r="C38" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="38"/>
+      <c r="D38" s="34">
+        <v>0.47871999999999998</v>
+      </c>
+      <c r="E38" s="38">
+        <v>0.52614000000000005</v>
+      </c>
+      <c r="F38" s="34">
+        <v>0.48394999999999999</v>
+      </c>
+      <c r="G38" s="35">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="32"/>
-      <c r="C39" s="23" t="s">
+      <c r="B39" s="9"/>
+      <c r="C39" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="38"/>
+      <c r="D39" s="28">
+        <v>0.62033000000000005</v>
+      </c>
+      <c r="E39" s="29">
+        <v>0.64695999999999998</v>
+      </c>
+      <c r="F39" s="28">
+        <v>0.60611000000000004</v>
+      </c>
+      <c r="G39" s="30">
+        <v>0.64725999999999995</v>
+      </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="32"/>
-      <c r="C40" s="23" t="s">
+      <c r="B40" s="9"/>
+      <c r="C40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="38"/>
+      <c r="D40" s="3">
+        <v>0.46723999999999999</v>
+      </c>
+      <c r="E40" s="21">
+        <v>0.49275000000000002</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.46929999999999999</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0.47848000000000002</v>
+      </c>
     </row>
     <row r="41" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="33"/>
-      <c r="C41" s="24" t="s">
+      <c r="B41" s="10"/>
+      <c r="C41" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="42"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="39"/>
+      <c r="D41" s="5">
+        <v>0.92262</v>
+      </c>
+      <c r="E41" s="22">
+        <v>0.94167999999999996</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0.85550999999999999</v>
+      </c>
+      <c r="G41" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="40"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="9"/>
+      <c r="D42" s="39">
+        <v>0.48137000000000002</v>
+      </c>
+      <c r="E42" s="40">
+        <v>0.49134</v>
+      </c>
+      <c r="F42" s="39">
+        <v>0.49197000000000002</v>
+      </c>
+      <c r="G42" s="41">
+        <v>0.47848000000000002</v>
+      </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="32"/>
-      <c r="C43" s="23" t="s">
+      <c r="B43" s="9"/>
+      <c r="C43" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="38"/>
+      <c r="D43" s="34">
+        <v>0.50185999999999997</v>
+      </c>
+      <c r="E43" s="38">
+        <v>0.50978999999999997</v>
+      </c>
+      <c r="F43" s="34">
+        <v>0.50748000000000004</v>
+      </c>
+      <c r="G43" s="35">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="32"/>
-      <c r="C44" s="23" t="s">
+      <c r="B44" s="9"/>
+      <c r="C44" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="38"/>
+      <c r="D44" s="28">
+        <v>0.64348000000000005</v>
+      </c>
+      <c r="E44" s="29">
+        <v>0.63839999999999997</v>
+      </c>
+      <c r="F44" s="28">
+        <v>0.62051000000000001</v>
+      </c>
+      <c r="G44" s="30">
+        <v>0.64725999999999995</v>
+      </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B45" s="32"/>
-      <c r="C45" s="23" t="s">
+      <c r="B45" s="9"/>
+      <c r="C45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="41"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="38"/>
+      <c r="D45" s="3">
+        <v>0.47943999999999998</v>
+      </c>
+      <c r="E45" s="21">
+        <v>0.48375000000000001</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0.48282999999999998</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0.47848000000000002</v>
+      </c>
     </row>
     <row r="46" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="33"/>
-      <c r="C46" s="24" t="s">
+      <c r="B46" s="10"/>
+      <c r="C46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="42"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="39"/>
+      <c r="D46" s="5">
+        <v>0.97816999999999998</v>
+      </c>
+      <c r="E46" s="22">
+        <v>0.93842000000000003</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0.86804999999999999</v>
+      </c>
+      <c r="G46" s="7">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
     <mergeCell ref="B37:B41"/>
     <mergeCell ref="B42:B46"/>
     <mergeCell ref="B7:B11"/>
@@ -3628,13 +4163,6 @@
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
